--- a/data/pca/factorExposure/factorExposure_2016-12-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-12-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01404693394124232</v>
+        <v>-0.01357458021120203</v>
       </c>
       <c r="C2">
-        <v>-0.04357169402784612</v>
+        <v>0.04153251517321672</v>
       </c>
       <c r="D2">
-        <v>0.0460750584699143</v>
+        <v>-0.06074704801520376</v>
       </c>
       <c r="E2">
-        <v>-0.01462640443524159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.007468466852610359</v>
+      </c>
+      <c r="F2">
+        <v>0.06342953802879339</v>
+      </c>
+      <c r="G2">
+        <v>0.0822194578311872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.06701944069092139</v>
+        <v>-0.03655259163725406</v>
       </c>
       <c r="C3">
-        <v>-0.09921003992871701</v>
+        <v>0.08928349436510012</v>
       </c>
       <c r="D3">
-        <v>0.02008846119348645</v>
+        <v>-0.1025752077426868</v>
       </c>
       <c r="E3">
-        <v>-0.03087537144043028</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.0271113014126261</v>
+      </c>
+      <c r="F3">
+        <v>0.0325352021432926</v>
+      </c>
+      <c r="G3">
+        <v>0.1028440036532181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06547178636725011</v>
+        <v>-0.05593330858635324</v>
       </c>
       <c r="C4">
-        <v>-0.0621287443231929</v>
+        <v>0.0600605204334029</v>
       </c>
       <c r="D4">
-        <v>0.02475134427987405</v>
+        <v>-0.058158777511858</v>
       </c>
       <c r="E4">
-        <v>0.002552084934633702</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.003794531277037137</v>
+      </c>
+      <c r="F4">
+        <v>0.04037498127142031</v>
+      </c>
+      <c r="G4">
+        <v>0.08769188506635256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02622146362340404</v>
+        <v>-0.03458588783731692</v>
       </c>
       <c r="C6">
-        <v>-0.05547778097893751</v>
+        <v>0.0397900532489664</v>
       </c>
       <c r="D6">
-        <v>0.01409100512635763</v>
+        <v>-0.06562751057020115</v>
       </c>
       <c r="E6">
-        <v>-0.003990076990445586</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01064424933053651</v>
+      </c>
+      <c r="F6">
+        <v>0.02894165691375751</v>
+      </c>
+      <c r="G6">
+        <v>0.08268302458972514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0196823468303359</v>
+        <v>-0.02056909860607226</v>
       </c>
       <c r="C7">
-        <v>-0.04454840152004434</v>
+        <v>0.03585076404444225</v>
       </c>
       <c r="D7">
-        <v>0.01411404480952947</v>
+        <v>-0.03254114143491739</v>
       </c>
       <c r="E7">
-        <v>0.01556817164919933</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.004545069966953755</v>
+      </c>
+      <c r="F7">
+        <v>0.04138483923842903</v>
+      </c>
+      <c r="G7">
+        <v>0.1167203398625513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0017757492501084</v>
+        <v>-0.004984229452276092</v>
       </c>
       <c r="C8">
-        <v>-0.01032165549041933</v>
+        <v>0.01985892501041393</v>
       </c>
       <c r="D8">
-        <v>0.008363205387052633</v>
+        <v>-0.03725316371259674</v>
       </c>
       <c r="E8">
-        <v>-0.01250055932558689</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.005903856570051709</v>
+      </c>
+      <c r="F8">
+        <v>0.01674223404081053</v>
+      </c>
+      <c r="G8">
+        <v>0.06530050049634668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02874283217868195</v>
+        <v>-0.03487803731736992</v>
       </c>
       <c r="C9">
-        <v>-0.04211627541753232</v>
+        <v>0.04536318402818018</v>
       </c>
       <c r="D9">
-        <v>0.01910356579150831</v>
+        <v>-0.04169608270201793</v>
       </c>
       <c r="E9">
-        <v>0.009208327100107799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.001782460578328176</v>
+      </c>
+      <c r="F9">
+        <v>0.03904154895124468</v>
+      </c>
+      <c r="G9">
+        <v>0.09291822646812112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.06864200515096587</v>
+        <v>-0.09153859784586069</v>
       </c>
       <c r="C10">
-        <v>0.2004851381094977</v>
+        <v>-0.19557379164009</v>
       </c>
       <c r="D10">
-        <v>0.01158426093441723</v>
+        <v>-0.01416308290649999</v>
       </c>
       <c r="E10">
-        <v>-0.0148432314554469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02867964799769891</v>
+      </c>
+      <c r="F10">
+        <v>0.02006433209174092</v>
+      </c>
+      <c r="G10">
+        <v>0.04706433161439922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04139504793436392</v>
+        <v>-0.03647723960511987</v>
       </c>
       <c r="C11">
-        <v>-0.05124394443338028</v>
+        <v>0.05078459001156203</v>
       </c>
       <c r="D11">
-        <v>0.0008683665031809095</v>
+        <v>-0.02838092928791787</v>
       </c>
       <c r="E11">
-        <v>0.00961245795384723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01421442136605645</v>
+      </c>
+      <c r="F11">
+        <v>0.01131199897940699</v>
+      </c>
+      <c r="G11">
+        <v>0.07424154653113021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03740363678758462</v>
+        <v>-0.03731660736279919</v>
       </c>
       <c r="C12">
-        <v>-0.04203450121063579</v>
+        <v>0.0464235934269196</v>
       </c>
       <c r="D12">
-        <v>0.003440548900118165</v>
+        <v>-0.0195351644272783</v>
       </c>
       <c r="E12">
-        <v>0.01093061392552849</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.005581332951126396</v>
+      </c>
+      <c r="F12">
+        <v>0.01757700544817626</v>
+      </c>
+      <c r="G12">
+        <v>0.07293198847657695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.009565572669171735</v>
+        <v>-0.01082044888514117</v>
       </c>
       <c r="C13">
-        <v>-0.03615831414862224</v>
+        <v>0.03625070493361001</v>
       </c>
       <c r="D13">
-        <v>0.02117814393960592</v>
+        <v>-0.06701312048352634</v>
       </c>
       <c r="E13">
-        <v>-0.01223924810309583</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.01821619261538439</v>
+      </c>
+      <c r="F13">
+        <v>0.045839490036175</v>
+      </c>
+      <c r="G13">
+        <v>0.127496686424318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006417466554054323</v>
+        <v>-0.008535761819829983</v>
       </c>
       <c r="C14">
-        <v>-0.02860177893531431</v>
+        <v>0.02731731939923</v>
       </c>
       <c r="D14">
-        <v>0.01056896556610055</v>
+        <v>-0.02572684028123278</v>
       </c>
       <c r="E14">
-        <v>0.01657404504598008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.003620709327817249</v>
+      </c>
+      <c r="F14">
+        <v>0.03901245314808804</v>
+      </c>
+      <c r="G14">
+        <v>0.1072300986337163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0350894282743383</v>
+        <v>-0.03521121373636745</v>
       </c>
       <c r="C16">
-        <v>-0.03849946794121224</v>
+        <v>0.04397276590668082</v>
       </c>
       <c r="D16">
-        <v>0.001229950712016605</v>
+        <v>-0.02449978289759026</v>
       </c>
       <c r="E16">
-        <v>0.004627446745560129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.002549117688168523</v>
+      </c>
+      <c r="F16">
+        <v>0.0174666942565643</v>
+      </c>
+      <c r="G16">
+        <v>0.07913661711740667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.03022678680003807</v>
+        <v>-0.01760526418610796</v>
       </c>
       <c r="C19">
-        <v>-0.05674899649390872</v>
+        <v>0.04755587312870419</v>
       </c>
       <c r="D19">
-        <v>0.0255781719927506</v>
+        <v>-0.1047449337735224</v>
       </c>
       <c r="E19">
-        <v>-0.0296151495591267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01807942374311912</v>
+      </c>
+      <c r="F19">
+        <v>0.04529852481726362</v>
+      </c>
+      <c r="G19">
+        <v>0.1238197956423258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01353665243368788</v>
+        <v>-0.01607073396414599</v>
       </c>
       <c r="C20">
-        <v>-0.0438304239504238</v>
+        <v>0.03686468397296528</v>
       </c>
       <c r="D20">
-        <v>0.0170272367823119</v>
+        <v>-0.0490649980842193</v>
       </c>
       <c r="E20">
-        <v>-0.01788529978191883</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02820447904097743</v>
+      </c>
+      <c r="F20">
+        <v>0.04017895162951704</v>
+      </c>
+      <c r="G20">
+        <v>0.09986636471942631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.005249082721645616</v>
+        <v>-0.006244848463739406</v>
       </c>
       <c r="C21">
-        <v>-0.03665921902396308</v>
+        <v>0.03572722564876559</v>
       </c>
       <c r="D21">
-        <v>0.02757777866688634</v>
+        <v>-0.07062084897553884</v>
       </c>
       <c r="E21">
-        <v>-0.02225902132138765</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.0176781544104575</v>
+      </c>
+      <c r="F21">
+        <v>0.05566828594759422</v>
+      </c>
+      <c r="G21">
+        <v>0.140042675390284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.00253226108721474</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0127806278464348</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.02474639255438271</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0007577079168679167</v>
+      </c>
+      <c r="F22">
+        <v>-0.0005362583871495421</v>
+      </c>
+      <c r="G22">
+        <v>0.01327010259724738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.002547156875740265</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.01275046013740532</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-0.02453451944755618</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.000446766930954714</v>
+      </c>
+      <c r="F23">
+        <v>-0.0004946033775122934</v>
+      </c>
+      <c r="G23">
+        <v>0.01306021022106945</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.02877492029050422</v>
+        <v>-0.03107550954827304</v>
       </c>
       <c r="C24">
-        <v>-0.04611298616550481</v>
+        <v>0.04951004757070591</v>
       </c>
       <c r="D24">
-        <v>0.008731873267647612</v>
+        <v>-0.02431164325938899</v>
       </c>
       <c r="E24">
-        <v>0.01421827663391755</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.007632172719151211</v>
+      </c>
+      <c r="F24">
+        <v>0.02426238287504036</v>
+      </c>
+      <c r="G24">
+        <v>0.07717164905904458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04839332570831276</v>
+        <v>-0.04322709494969221</v>
       </c>
       <c r="C25">
-        <v>-0.0516721927172486</v>
+        <v>0.05601877728537942</v>
       </c>
       <c r="D25">
-        <v>0.008507738103935488</v>
+        <v>-0.01803476611832287</v>
       </c>
       <c r="E25">
-        <v>0.02394591703102258</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.007801135294894982</v>
+      </c>
+      <c r="F25">
+        <v>0.0265096908749661</v>
+      </c>
+      <c r="G25">
+        <v>0.0867139997748162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.003155939058585766</v>
+        <v>-0.0145386927487319</v>
       </c>
       <c r="C26">
-        <v>-0.01296549844967932</v>
+        <v>0.01056041621760545</v>
       </c>
       <c r="D26">
-        <v>0.02878532957828488</v>
+        <v>-0.02239068609441795</v>
       </c>
       <c r="E26">
-        <v>0.005753764008072738</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.001556266437331795</v>
+      </c>
+      <c r="F26">
+        <v>0.04845294195188639</v>
+      </c>
+      <c r="G26">
+        <v>0.07340268802204578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.08199959631839945</v>
+        <v>-0.1225706224482175</v>
       </c>
       <c r="C28">
-        <v>0.2297180120622019</v>
+        <v>-0.2468563783796624</v>
       </c>
       <c r="D28">
-        <v>0.0206941955965128</v>
+        <v>0.00107755154366735</v>
       </c>
       <c r="E28">
-        <v>-0.006631966171356892</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.02888445060113959</v>
+      </c>
+      <c r="F28">
+        <v>0.0326669569804364</v>
+      </c>
+      <c r="G28">
+        <v>0.04797396416041936</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01173290743457674</v>
+        <v>-0.00778148323340306</v>
       </c>
       <c r="C29">
-        <v>-0.02031602541442907</v>
+        <v>0.02259582880848559</v>
       </c>
       <c r="D29">
-        <v>0.004861977867872909</v>
+        <v>-0.01626170374715336</v>
       </c>
       <c r="E29">
-        <v>0.0142573406025453</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.008194860948224426</v>
+      </c>
+      <c r="F29">
+        <v>0.03207505616762482</v>
+      </c>
+      <c r="G29">
+        <v>0.09937975887322105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.038826623473591</v>
+        <v>-0.03906177558416147</v>
       </c>
       <c r="C30">
-        <v>-0.07407494403279261</v>
+        <v>0.06445463635358173</v>
       </c>
       <c r="D30">
-        <v>0.03518685878493703</v>
+        <v>-0.09176279062001888</v>
       </c>
       <c r="E30">
-        <v>0.009964841328243261</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02178737933692482</v>
+      </c>
+      <c r="F30">
+        <v>0.04732487718828843</v>
+      </c>
+      <c r="G30">
+        <v>0.1059622610445639</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.04517736759380135</v>
+        <v>-0.0564534255873082</v>
       </c>
       <c r="C31">
-        <v>-0.02505385520602395</v>
+        <v>0.0407739873850227</v>
       </c>
       <c r="D31">
-        <v>0.01499474925637688</v>
+        <v>-0.003009720719396872</v>
       </c>
       <c r="E31">
-        <v>0.02096023160374846</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02989965808696433</v>
+      </c>
+      <c r="F31">
+        <v>0.04594933182543746</v>
+      </c>
+      <c r="G31">
+        <v>0.08733421221832072</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.009826653317078266</v>
+        <v>-0.002173322688786261</v>
       </c>
       <c r="C32">
-        <v>-0.03483761165974474</v>
+        <v>0.02373719369440398</v>
       </c>
       <c r="D32">
-        <v>0.007288617875068485</v>
+        <v>-0.04682377233102328</v>
       </c>
       <c r="E32">
-        <v>-0.01851267083990235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01041521789394785</v>
+      </c>
+      <c r="F32">
+        <v>0.01344423958295387</v>
+      </c>
+      <c r="G32">
+        <v>0.0751757026281792</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03064485560767974</v>
+        <v>-0.02652291444413901</v>
       </c>
       <c r="C33">
-        <v>-0.05479353585664497</v>
+        <v>0.04650293886072567</v>
       </c>
       <c r="D33">
-        <v>0.02112452861881263</v>
+        <v>-0.07365932330988931</v>
       </c>
       <c r="E33">
-        <v>-0.0002470248996032937</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.0002204167016813395</v>
+      </c>
+      <c r="F33">
+        <v>0.04571882011731526</v>
+      </c>
+      <c r="G33">
+        <v>0.1495981584762897</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05521228082857996</v>
+        <v>-0.0426967082869808</v>
       </c>
       <c r="C34">
-        <v>-0.04887558735196337</v>
+        <v>0.06014071111325151</v>
       </c>
       <c r="D34">
-        <v>-0.004269434451964802</v>
+        <v>-0.02201989848643313</v>
       </c>
       <c r="E34">
-        <v>0.01686780915886307</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02004116140263166</v>
+      </c>
+      <c r="F34">
+        <v>0.006458959265161553</v>
+      </c>
+      <c r="G34">
+        <v>0.07917372327546886</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.007207960804096244</v>
+        <v>-0.01511490305641994</v>
       </c>
       <c r="C36">
-        <v>-0.005694202359195884</v>
+        <v>0.006383870235270221</v>
       </c>
       <c r="D36">
-        <v>0.01229239383407236</v>
+        <v>-0.02383744906305272</v>
       </c>
       <c r="E36">
-        <v>0.008976875700993618</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.007105178181786877</v>
+      </c>
+      <c r="F36">
+        <v>0.03552332725104365</v>
+      </c>
+      <c r="G36">
+        <v>0.09055559873809352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.0366809085803408</v>
+        <v>-0.03152144585300248</v>
       </c>
       <c r="C38">
-        <v>-0.01903696201390023</v>
+        <v>0.02242069729291019</v>
       </c>
       <c r="D38">
-        <v>0.005699844154994952</v>
+        <v>-0.02138765509951214</v>
       </c>
       <c r="E38">
-        <v>0.01622647266176068</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.0123568615658473</v>
+      </c>
+      <c r="F38">
+        <v>0.02635284981843458</v>
+      </c>
+      <c r="G38">
+        <v>0.08660617488995104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.03940232605174449</v>
+        <v>-0.03715454309562539</v>
       </c>
       <c r="C39">
-        <v>-0.08317635885033343</v>
+        <v>0.07491726490488898</v>
       </c>
       <c r="D39">
-        <v>0.009070167295609751</v>
+        <v>-0.04692596982774388</v>
       </c>
       <c r="E39">
-        <v>-0.0001452791930067141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.016366321035176</v>
+      </c>
+      <c r="F39">
+        <v>0.02266428968002161</v>
+      </c>
+      <c r="G39">
+        <v>0.08609025460760016</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01669325716114692</v>
+        <v>-0.0164793652366442</v>
       </c>
       <c r="C40">
-        <v>-0.02620847595819027</v>
+        <v>0.03512771624997593</v>
       </c>
       <c r="D40">
-        <v>0.01621365957380976</v>
+        <v>-0.03700956905375256</v>
       </c>
       <c r="E40">
-        <v>-0.01290176481413312</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02761476396367849</v>
+      </c>
+      <c r="F40">
+        <v>0.04313952957270381</v>
+      </c>
+      <c r="G40">
+        <v>0.1122724902882986</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.009637599755546096</v>
+        <v>-0.01831648585780538</v>
       </c>
       <c r="C41">
-        <v>0.0008671774319940893</v>
+        <v>-0.001822981116890973</v>
       </c>
       <c r="D41">
-        <v>0.008278551075918579</v>
+        <v>-0.01882256942027973</v>
       </c>
       <c r="E41">
-        <v>0.01237147596377344</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01302443647331922</v>
+      </c>
+      <c r="F41">
+        <v>0.03179588006387482</v>
+      </c>
+      <c r="G41">
+        <v>0.0835022641576444</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.006280119097408145</v>
+        <v>-0.003878565479572528</v>
       </c>
       <c r="C42">
-        <v>-0.04835949836615454</v>
+        <v>0.02651311099961098</v>
       </c>
       <c r="D42">
-        <v>0.1107377004182402</v>
+        <v>-0.004975965740270621</v>
       </c>
       <c r="E42">
-        <v>-0.008742047391940127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.01555910101297876</v>
+      </c>
+      <c r="F42">
+        <v>0.1124950147956935</v>
+      </c>
+      <c r="G42">
+        <v>-0.06062157853564052</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.02975318385263021</v>
+        <v>-0.03317654904011814</v>
       </c>
       <c r="C43">
-        <v>-0.008204778826724364</v>
+        <v>0.01107202298639311</v>
       </c>
       <c r="D43">
-        <v>0.006772867452456742</v>
+        <v>-0.03706244281939044</v>
       </c>
       <c r="E43">
-        <v>0.0124676534910921</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01150800238520844</v>
+      </c>
+      <c r="F43">
+        <v>0.03328442498042066</v>
+      </c>
+      <c r="G43">
+        <v>0.1120502609495336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.02229788111666126</v>
+        <v>-0.01496916831879292</v>
       </c>
       <c r="C44">
-        <v>-0.05424959043477491</v>
+        <v>0.0517305079162813</v>
       </c>
       <c r="D44">
-        <v>0.01184446592693116</v>
+        <v>-0.04328492583688225</v>
       </c>
       <c r="E44">
-        <v>-0.003202975919585247</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.0188183623505136</v>
+      </c>
+      <c r="F44">
+        <v>0.0361652518650863</v>
+      </c>
+      <c r="G44">
+        <v>0.112078610285038</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.001756345653576004</v>
+        <v>-0.009836079653297997</v>
       </c>
       <c r="C46">
-        <v>-0.0127124333785921</v>
+        <v>0.01735103219081126</v>
       </c>
       <c r="D46">
-        <v>0.01234918166098551</v>
+        <v>-0.01002396667830411</v>
       </c>
       <c r="E46">
-        <v>0.0258814489174736</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.01215233295502208</v>
+      </c>
+      <c r="F46">
+        <v>0.04540181543243398</v>
+      </c>
+      <c r="G46">
+        <v>0.1042650873661756</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.07902377378678041</v>
+        <v>-0.08593198181375526</v>
       </c>
       <c r="C47">
-        <v>-0.06042681648304498</v>
+        <v>0.07074205127564191</v>
       </c>
       <c r="D47">
-        <v>-0.003022160794228984</v>
+        <v>0.007906431297550575</v>
       </c>
       <c r="E47">
-        <v>0.01426671350969446</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.04049828005909709</v>
+      </c>
+      <c r="F47">
+        <v>0.0279717329392159</v>
+      </c>
+      <c r="G47">
+        <v>0.08731841133739775</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01215859778347717</v>
+        <v>-0.01725739219467384</v>
       </c>
       <c r="C48">
-        <v>-0.01032481539302297</v>
+        <v>0.01247653696091799</v>
       </c>
       <c r="D48">
-        <v>-0.004644905798968327</v>
+        <v>-0.01571687943865253</v>
       </c>
       <c r="E48">
-        <v>0.01409744515901237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.02013983663597417</v>
+      </c>
+      <c r="F48">
+        <v>0.0260426788493391</v>
+      </c>
+      <c r="G48">
+        <v>0.1063463974351391</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08329048507370292</v>
+        <v>-0.07885113836663571</v>
       </c>
       <c r="C50">
-        <v>-0.0555575112471336</v>
+        <v>0.0672916631305947</v>
       </c>
       <c r="D50">
-        <v>0.0005547608030433298</v>
+        <v>0.0005006056302445539</v>
       </c>
       <c r="E50">
-        <v>0.02414130834742892</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.03846395003520053</v>
+      </c>
+      <c r="F50">
+        <v>0.03552221269723611</v>
+      </c>
+      <c r="G50">
+        <v>0.09624963288931949</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01941082652480325</v>
+        <v>-0.01211386088331008</v>
       </c>
       <c r="C51">
-        <v>-0.03920945614930917</v>
+        <v>0.03190324570404567</v>
       </c>
       <c r="D51">
-        <v>0.01568144465953362</v>
+        <v>-0.04419092474356286</v>
       </c>
       <c r="E51">
-        <v>0.006874032817222176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01038890134047176</v>
+      </c>
+      <c r="F51">
+        <v>0.03506555568372523</v>
+      </c>
+      <c r="G51">
+        <v>0.09764600183632585</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1056383791124403</v>
+        <v>-0.08759228966786423</v>
       </c>
       <c r="C53">
-        <v>-0.06554004598606603</v>
+        <v>0.08457592093571102</v>
       </c>
       <c r="D53">
-        <v>-0.01069269168425166</v>
+        <v>0.02939631683350115</v>
       </c>
       <c r="E53">
-        <v>0.0349186477867749</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.04409660407024137</v>
+      </c>
+      <c r="F53">
+        <v>0.02259424711772422</v>
+      </c>
+      <c r="G53">
+        <v>0.09397311981902511</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02788685484936486</v>
+        <v>-0.0316566424624453</v>
       </c>
       <c r="C54">
-        <v>0.0001322263159263709</v>
+        <v>0.01689693022622419</v>
       </c>
       <c r="D54">
-        <v>0.0006771547828087637</v>
+        <v>-0.02892971857318044</v>
       </c>
       <c r="E54">
-        <v>-0.001228222806127621</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01226103416727457</v>
+      </c>
+      <c r="F54">
+        <v>0.02681134350628422</v>
+      </c>
+      <c r="G54">
+        <v>0.1100566601625314</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.08037529228721726</v>
+        <v>-0.08195724948391592</v>
       </c>
       <c r="C55">
-        <v>-0.05809548275781939</v>
+        <v>0.06856768572056254</v>
       </c>
       <c r="D55">
-        <v>-0.009365291241326006</v>
+        <v>0.03417630594061039</v>
       </c>
       <c r="E55">
-        <v>0.03228504149115653</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.04418773652863558</v>
+      </c>
+      <c r="F55">
+        <v>0.02022936189558382</v>
+      </c>
+      <c r="G55">
+        <v>0.06803957890697865</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1597563235512248</v>
+        <v>-0.1440385104765491</v>
       </c>
       <c r="C56">
-        <v>-0.08251607373343962</v>
+        <v>0.1039843847511374</v>
       </c>
       <c r="D56">
-        <v>-0.03314151095050227</v>
+        <v>0.0431385416002784</v>
       </c>
       <c r="E56">
-        <v>0.02733760248848287</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.05609586732443342</v>
+      </c>
+      <c r="F56">
+        <v>-0.003532376694687488</v>
+      </c>
+      <c r="G56">
+        <v>0.06490388780991005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.005901462291714616</v>
+        <v>-0.002422702083616014</v>
       </c>
       <c r="C57">
-        <v>-0.007600823281670993</v>
+        <v>0.004007951672208236</v>
       </c>
       <c r="D57">
-        <v>0.01313882145875139</v>
+        <v>-0.02691311411384902</v>
       </c>
       <c r="E57">
-        <v>-0.03120318051653569</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.001050842388221027</v>
+      </c>
+      <c r="F57">
+        <v>0.005843984393549625</v>
+      </c>
+      <c r="G57">
+        <v>0.008668875223684138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04894036910926158</v>
+        <v>-0.03679231779657242</v>
       </c>
       <c r="C58">
-        <v>-0.06078791716664966</v>
+        <v>0.03246569084548059</v>
       </c>
       <c r="D58">
-        <v>0.04608246081841969</v>
+        <v>-0.6927688158852311</v>
       </c>
       <c r="E58">
-        <v>-0.9629520684003263</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.620127634180749</v>
+      </c>
+      <c r="F58">
+        <v>-0.08681872816482195</v>
+      </c>
+      <c r="G58">
+        <v>-0.2867007179641894</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1321451955065084</v>
+        <v>-0.146605320661712</v>
       </c>
       <c r="C59">
-        <v>0.2292420587544921</v>
+        <v>-0.2054628360309057</v>
       </c>
       <c r="D59">
-        <v>0.005010132200549006</v>
+        <v>-0.02166211162411267</v>
       </c>
       <c r="E59">
-        <v>-0.01230629561929781</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01365079819999836</v>
+      </c>
+      <c r="F59">
+        <v>0.005884591231270227</v>
+      </c>
+      <c r="G59">
+        <v>0.04015835685209326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.315274761117762</v>
+        <v>-0.2875829596079067</v>
       </c>
       <c r="C60">
-        <v>-0.06503332720895914</v>
+        <v>0.088380717799456</v>
       </c>
       <c r="D60">
-        <v>0.03465652447741608</v>
+        <v>-0.1411855347692654</v>
       </c>
       <c r="E60">
-        <v>-0.03811712544224131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.2912389420462093</v>
+      </c>
+      <c r="F60">
+        <v>-0.09062901614291922</v>
+      </c>
+      <c r="G60">
+        <v>-0.1445687324950675</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03512394491433961</v>
+        <v>-0.03921429745323548</v>
       </c>
       <c r="C61">
-        <v>-0.06222419266733658</v>
+        <v>0.06239360521643233</v>
       </c>
       <c r="D61">
-        <v>0.0002073705980858987</v>
+        <v>-0.0405398685949454</v>
       </c>
       <c r="E61">
-        <v>-8.92387073231379e-05</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.006854675961440562</v>
+      </c>
+      <c r="F61">
+        <v>0.01591233566718416</v>
+      </c>
+      <c r="G61">
+        <v>0.08755031608432962</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01400000202666175</v>
+        <v>-0.01527550042900929</v>
       </c>
       <c r="C63">
-        <v>-0.02813576610193165</v>
+        <v>0.02670079904750084</v>
       </c>
       <c r="D63">
-        <v>0.007462969571542444</v>
+        <v>-0.01573527186872946</v>
       </c>
       <c r="E63">
-        <v>0.02565956138510061</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.01002751727983178</v>
+      </c>
+      <c r="F63">
+        <v>0.03058364625165464</v>
+      </c>
+      <c r="G63">
+        <v>0.0868654859516082</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04727846880844921</v>
+        <v>-0.05241303596457069</v>
       </c>
       <c r="C64">
-        <v>-0.02807258039366604</v>
+        <v>0.04703490111189323</v>
       </c>
       <c r="D64">
-        <v>0.01044155111235061</v>
+        <v>-0.009756891591415597</v>
       </c>
       <c r="E64">
-        <v>0.02324405120187003</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.005096304390812062</v>
+      </c>
+      <c r="F64">
+        <v>0.03036493746741897</v>
+      </c>
+      <c r="G64">
+        <v>0.08916737227716162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08609556565448712</v>
+        <v>-0.07157450366169682</v>
       </c>
       <c r="C65">
-        <v>-0.06176274509045838</v>
+        <v>0.04517571129748228</v>
       </c>
       <c r="D65">
-        <v>0.02070400836769962</v>
+        <v>-0.0694976177682804</v>
       </c>
       <c r="E65">
-        <v>-0.002675132971396758</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.006832368831081807</v>
+      </c>
+      <c r="F65">
+        <v>0.01918071288505053</v>
+      </c>
+      <c r="G65">
+        <v>0.03619352785584299</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06285336285920277</v>
+        <v>-0.04983868040798335</v>
       </c>
       <c r="C66">
-        <v>-0.1200497623392434</v>
+        <v>0.099200958630057</v>
       </c>
       <c r="D66">
-        <v>0.01000487276925631</v>
+        <v>-0.0703728355336404</v>
       </c>
       <c r="E66">
-        <v>-0.006967978916687391</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02015770997249758</v>
+      </c>
+      <c r="F66">
+        <v>0.01830877604397074</v>
+      </c>
+      <c r="G66">
+        <v>0.09211964511841343</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.0636977589188962</v>
+        <v>-0.05397363514420001</v>
       </c>
       <c r="C67">
-        <v>-0.02039905634064937</v>
+        <v>0.02808464594111119</v>
       </c>
       <c r="D67">
-        <v>0.003995237338832397</v>
+        <v>-0.007251412999890669</v>
       </c>
       <c r="E67">
-        <v>0.02022267783657368</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.007357772950038431</v>
+      </c>
+      <c r="F67">
+        <v>0.02049761629029129</v>
+      </c>
+      <c r="G67">
+        <v>0.07394571482645296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.09463048074435236</v>
+        <v>-0.148677019328833</v>
       </c>
       <c r="C68">
-        <v>0.288345904832797</v>
+        <v>-0.2690578523003039</v>
       </c>
       <c r="D68">
-        <v>0.03120047026483718</v>
+        <v>0.004583744393566188</v>
       </c>
       <c r="E68">
-        <v>-0.01354530234975468</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.04039261622651646</v>
+      </c>
+      <c r="F68">
+        <v>0.04212492723732997</v>
+      </c>
+      <c r="G68">
+        <v>0.01632087837320073</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08655904390484162</v>
+        <v>-0.08504601790421894</v>
       </c>
       <c r="C69">
-        <v>-0.05499061387411844</v>
+        <v>0.07375371205787727</v>
       </c>
       <c r="D69">
-        <v>-0.007176956014235341</v>
+        <v>0.01266174138918486</v>
       </c>
       <c r="E69">
-        <v>0.03735308428071699</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.0151458554000001</v>
+      </c>
+      <c r="F69">
+        <v>0.0241227968473945</v>
+      </c>
+      <c r="G69">
+        <v>0.09800585449443895</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,231 +2304,315 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1043676489504701</v>
+        <v>-0.1366595947834708</v>
       </c>
       <c r="C71">
-        <v>0.2398254411587739</v>
+        <v>-0.2376888288433368</v>
       </c>
       <c r="D71">
-        <v>0.02435749450425241</v>
+        <v>-0.02365621910737713</v>
       </c>
       <c r="E71">
-        <v>-0.01654759486087866</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03769950283871698</v>
+      </c>
+      <c r="F71">
+        <v>0.03523539787827751</v>
+      </c>
+      <c r="G71">
+        <v>0.05982655716520543</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0745420689678868</v>
+        <v>-0.08711048424123803</v>
       </c>
       <c r="C72">
-        <v>-0.05798442497351718</v>
+        <v>0.05824845673189386</v>
       </c>
       <c r="D72">
-        <v>0.006741541040863973</v>
+        <v>-0.009072804354772528</v>
       </c>
       <c r="E72">
-        <v>0.05785934212840617</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.02695286431719639</v>
+      </c>
+      <c r="F72">
+        <v>0.025895121776915</v>
+      </c>
+      <c r="G72">
+        <v>0.07575233405075289</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4440672528895422</v>
+        <v>-0.3743250736840661</v>
       </c>
       <c r="C73">
-        <v>-0.06928268423929951</v>
+        <v>0.07821193523644039</v>
       </c>
       <c r="D73">
-        <v>0.07885454304133992</v>
+        <v>-0.2983850493497599</v>
       </c>
       <c r="E73">
-        <v>-0.06185946968959474</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.5068082923694648</v>
+      </c>
+      <c r="F73">
+        <v>-0.1632296511628366</v>
+      </c>
+      <c r="G73">
+        <v>-0.3062676256461752</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1236749402150998</v>
+        <v>-0.1099817722425106</v>
       </c>
       <c r="C74">
-        <v>-0.1089692527499521</v>
+        <v>0.1019572701160838</v>
       </c>
       <c r="D74">
-        <v>-0.0209443679747213</v>
+        <v>0.01588600407397988</v>
       </c>
       <c r="E74">
-        <v>0.02886603829418779</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.05663607277220459</v>
+      </c>
+      <c r="F74">
+        <v>0.01030567444723006</v>
+      </c>
+      <c r="G74">
+        <v>0.07612536671402673</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2766152000311977</v>
+        <v>-0.2554917726983453</v>
       </c>
       <c r="C75">
-        <v>-0.1112156193182265</v>
+        <v>0.1419838622699007</v>
       </c>
       <c r="D75">
-        <v>-0.0651647460528294</v>
+        <v>0.1116811630297934</v>
       </c>
       <c r="E75">
-        <v>0.03620614045937012</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.128642847566628</v>
+      </c>
+      <c r="F75">
+        <v>-0.02425236763017027</v>
+      </c>
+      <c r="G75">
+        <v>0.04382195122381346</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.128868472371823</v>
+        <v>-0.1243062185206224</v>
       </c>
       <c r="C76">
-        <v>-0.09570979490440135</v>
+        <v>0.1034851334097736</v>
       </c>
       <c r="D76">
-        <v>-0.03231014827099161</v>
+        <v>0.04680946239882872</v>
       </c>
       <c r="E76">
-        <v>0.03711077599212331</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.07800908198794061</v>
+      </c>
+      <c r="F76">
+        <v>0.003423211312282399</v>
+      </c>
+      <c r="G76">
+        <v>0.07491033151856999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.06389402802641524</v>
+        <v>-0.06703497879402266</v>
       </c>
       <c r="C77">
-        <v>-0.05828336237463837</v>
+        <v>0.06136031192465634</v>
       </c>
       <c r="D77">
-        <v>0.01227886140119293</v>
+        <v>-0.05674720728129726</v>
       </c>
       <c r="E77">
-        <v>-0.01716420870590046</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.03378540054856641</v>
+      </c>
+      <c r="F77">
+        <v>0.02626070284727654</v>
+      </c>
+      <c r="G77">
+        <v>0.1023106787237681</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.05013887748380084</v>
+        <v>-0.04179745873941104</v>
       </c>
       <c r="C78">
-        <v>-0.04879194902084022</v>
+        <v>0.05512855817176366</v>
       </c>
       <c r="D78">
-        <v>0.002850587627632396</v>
+        <v>-0.05887580216785399</v>
       </c>
       <c r="E78">
-        <v>-0.006093987037941693</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02369482196007721</v>
+      </c>
+      <c r="F78">
+        <v>0.009679937692133019</v>
+      </c>
+      <c r="G78">
+        <v>0.09795694386191073</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.0004265655025238113</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0001898879372056013</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>-0.007623374530879506</v>
       </c>
       <c r="E79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.002604290999248221</v>
+      </c>
+      <c r="F79">
+        <v>0.001592047679506273</v>
+      </c>
+      <c r="G79">
+        <v>0.009037034332592639</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.05612877355975224</v>
+        <v>-0.04012124215422384</v>
       </c>
       <c r="C80">
-        <v>-0.05911924403228872</v>
+        <v>0.0464181027641379</v>
       </c>
       <c r="D80">
-        <v>0.02310118299305399</v>
+        <v>-0.0427527630732863</v>
       </c>
       <c r="E80">
-        <v>-0.01862302549533611</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.0002436406301407876</v>
+      </c>
+      <c r="F80">
+        <v>0.0272908612886466</v>
+      </c>
+      <c r="G80">
+        <v>0.03035764674045843</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1459811461906159</v>
+        <v>-0.1406509387761884</v>
       </c>
       <c r="C81">
-        <v>-0.06819620657017973</v>
+        <v>0.09188557667815182</v>
       </c>
       <c r="D81">
-        <v>-0.02936871851866187</v>
+        <v>0.07468438030067992</v>
       </c>
       <c r="E81">
-        <v>0.0312016409883354</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.1032125989663548</v>
+      </c>
+      <c r="F81">
+        <v>0.01013710496157935</v>
+      </c>
+      <c r="G81">
+        <v>0.04450215536498223</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.0575922279280983</v>
+        <v>-0.1747629853039521</v>
       </c>
       <c r="C82">
-        <v>-0.03633736269223593</v>
+        <v>0.1250806253093535</v>
       </c>
       <c r="D82">
-        <v>-0.002867102825049607</v>
+        <v>0.1865046694138464</v>
       </c>
       <c r="E82">
-        <v>0.02264583137165914</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.0456791690084572</v>
+      </c>
+      <c r="F82">
+        <v>0.04952821766047687</v>
+      </c>
+      <c r="G82">
+        <v>0.01906142829783462</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02895370846948174</v>
+        <v>-0.02798144288193722</v>
       </c>
       <c r="C83">
-        <v>-0.01887152112626697</v>
+        <v>0.03272415370662793</v>
       </c>
       <c r="D83">
-        <v>0.01379288209310611</v>
+        <v>-0.03477332307130673</v>
       </c>
       <c r="E83">
-        <v>-0.01497666585442297</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.009722364285584602</v>
+      </c>
+      <c r="F83">
+        <v>0.01770186225287348</v>
+      </c>
+      <c r="G83">
+        <v>0.05279942219700284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2568010809635912</v>
+        <v>-0.2136304544691717</v>
       </c>
       <c r="C85">
-        <v>-0.111505823074296</v>
+        <v>0.1253480588279546</v>
       </c>
       <c r="D85">
-        <v>-0.05295138927796965</v>
+        <v>0.1101837082355286</v>
       </c>
       <c r="E85">
-        <v>0.09739330366529454</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.0533484566203502</v>
+      </c>
+      <c r="F85">
+        <v>-0.02554320804067321</v>
+      </c>
+      <c r="G85">
+        <v>0.002232296877637052</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.0109561374117117</v>
+        <v>-0.01174111852326383</v>
       </c>
       <c r="C86">
-        <v>-0.02076325533753488</v>
+        <v>0.02360904243101377</v>
       </c>
       <c r="D86">
-        <v>0.04808609919303796</v>
+        <v>-0.081440444735534</v>
       </c>
       <c r="E86">
-        <v>0.002754371061802462</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.01464968102042272</v>
+      </c>
+      <c r="F86">
+        <v>0.07128663801799676</v>
+      </c>
+      <c r="G86">
+        <v>0.1500363107809678</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.01401134801544376</v>
+        <v>-0.02018993919919703</v>
       </c>
       <c r="C87">
-        <v>-0.02251974694997625</v>
+        <v>0.01557467868456122</v>
       </c>
       <c r="D87">
-        <v>0.02524916442583205</v>
+        <v>-0.09974356012401191</v>
       </c>
       <c r="E87">
-        <v>-0.07597189699669829</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.03608008575147099</v>
+      </c>
+      <c r="F87">
+        <v>0.03069733542046073</v>
+      </c>
+      <c r="G87">
+        <v>0.1025656235380092</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.09910681501449586</v>
+        <v>-0.08956596309395611</v>
       </c>
       <c r="C88">
-        <v>-0.05922841935563089</v>
+        <v>0.06104950315969886</v>
       </c>
       <c r="D88">
-        <v>0.04903258777028364</v>
+        <v>-0.01647787155887469</v>
       </c>
       <c r="E88">
-        <v>0.02110518208487249</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.006850766043310122</v>
+      </c>
+      <c r="F88">
+        <v>0.07777001803975182</v>
+      </c>
+      <c r="G88">
+        <v>0.0776759190936758</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1776384209947502</v>
+        <v>-0.2103837237489013</v>
       </c>
       <c r="C89">
-        <v>0.3878355302473603</v>
+        <v>-0.371494577115828</v>
       </c>
       <c r="D89">
-        <v>0.01853852565802723</v>
+        <v>0.02288001070797501</v>
       </c>
       <c r="E89">
-        <v>0.0256253379006534</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.006426983880810801</v>
+      </c>
+      <c r="F89">
+        <v>0.03587630546587993</v>
+      </c>
+      <c r="G89">
+        <v>0.07574242930848138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1589951073720831</v>
+        <v>-0.1986763789982304</v>
       </c>
       <c r="C90">
-        <v>0.358134911556384</v>
+        <v>-0.3246418253907227</v>
       </c>
       <c r="D90">
-        <v>0.02273719374250255</v>
+        <v>0.0153405855070907</v>
       </c>
       <c r="E90">
-        <v>-0.01423625700705583</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.05476984865474557</v>
+      </c>
+      <c r="F90">
+        <v>0.03739280988341254</v>
+      </c>
+      <c r="G90">
+        <v>0.04848878445216246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.214938115946329</v>
+        <v>-0.1913075386475117</v>
       </c>
       <c r="C91">
-        <v>-0.1012154985166616</v>
+        <v>0.1302930718746</v>
       </c>
       <c r="D91">
-        <v>-0.03542884455945483</v>
+        <v>0.08951075758979499</v>
       </c>
       <c r="E91">
-        <v>0.0534435821712599</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.09907529522456326</v>
+      </c>
+      <c r="F91">
+        <v>0.006032182385607514</v>
+      </c>
+      <c r="G91">
+        <v>0.05347419983387113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1685129576965851</v>
+        <v>-0.1797949515950784</v>
       </c>
       <c r="C92">
-        <v>0.2871843623079179</v>
+        <v>-0.2765342148879608</v>
       </c>
       <c r="D92">
-        <v>-0.02505655964567845</v>
+        <v>-0.002107933313017675</v>
       </c>
       <c r="E92">
-        <v>-0.01132128127889433</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.07559215169259173</v>
+      </c>
+      <c r="F92">
+        <v>-0.007195156080002132</v>
+      </c>
+      <c r="G92">
+        <v>0.08525770479416794</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1751906393545885</v>
+        <v>-0.2204311191580969</v>
       </c>
       <c r="C93">
-        <v>0.337945142293702</v>
+        <v>-0.320635128683543</v>
       </c>
       <c r="D93">
-        <v>0.01880556971965778</v>
+        <v>-0.001034577246057669</v>
       </c>
       <c r="E93">
-        <v>-0.0159066587649151</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.03703209907579904</v>
+      </c>
+      <c r="F93">
+        <v>0.02584194853863721</v>
+      </c>
+      <c r="G93">
+        <v>0.05378910083322778</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2862790659624137</v>
+        <v>-0.3398257519529392</v>
       </c>
       <c r="C94">
-        <v>-0.1191169575191662</v>
+        <v>0.1909795408460406</v>
       </c>
       <c r="D94">
-        <v>-0.05979090976650349</v>
+        <v>0.3988293429007824</v>
       </c>
       <c r="E94">
-        <v>0.07524234733364764</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.3385301324089386</v>
+      </c>
+      <c r="F94">
+        <v>0.04556825499713668</v>
+      </c>
+      <c r="G94">
+        <v>-0.4158930308329289</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.07208755347352448</v>
+        <v>-0.08125561216872931</v>
       </c>
       <c r="C95">
-        <v>-0.08378818456667862</v>
+        <v>0.08539931080420773</v>
       </c>
       <c r="D95">
-        <v>0.02878390795278571</v>
+        <v>-0.139214302209534</v>
       </c>
       <c r="E95">
-        <v>-0.07799826269311493</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1512796512863355</v>
+      </c>
+      <c r="F95">
+        <v>-0.01782735667449794</v>
+      </c>
+      <c r="G95">
+        <v>0.03327770636118761</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2104952735583401</v>
+        <v>-0.1957185120209337</v>
       </c>
       <c r="C98">
-        <v>-0.02862788861679275</v>
+        <v>0.04180606085807045</v>
       </c>
       <c r="D98">
-        <v>-0.002488524550978335</v>
+        <v>-0.1324701705971129</v>
       </c>
       <c r="E98">
-        <v>-0.04649522944407974</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1782265481583867</v>
+      </c>
+      <c r="F98">
+        <v>-0.08584733178405864</v>
+      </c>
+      <c r="G98">
+        <v>-0.04153934490102725</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +2994,62 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01157486325938466</v>
+        <v>-0.007628697998658561</v>
       </c>
       <c r="C101">
-        <v>-0.02063131021547903</v>
+        <v>0.0225028685236459</v>
       </c>
       <c r="D101">
-        <v>0.0043387752570145</v>
+        <v>-0.01568809908717946</v>
       </c>
       <c r="E101">
-        <v>0.01425060927277566</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.008957245618914464</v>
+      </c>
+      <c r="F101">
+        <v>0.03193350911391619</v>
+      </c>
+      <c r="G101">
+        <v>0.09901770213696622</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1293073546899491</v>
+        <v>-0.1229289983826772</v>
       </c>
       <c r="C102">
-        <v>-0.06678799506878802</v>
+        <v>0.09610772668128435</v>
       </c>
       <c r="D102">
-        <v>-0.01387855918458916</v>
+        <v>0.0519412068957367</v>
       </c>
       <c r="E102">
-        <v>0.03699016167378489</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.01495298883291803</v>
+      </c>
+      <c r="F102">
+        <v>-0.004013241859511678</v>
+      </c>
+      <c r="G102">
+        <v>0.02340309979726453</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,22 +3063,34 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.01182885710430574</v>
+        <v>0.004661409105819334</v>
       </c>
       <c r="C104">
-        <v>-0.02568429353421487</v>
+        <v>0.007464276172830931</v>
       </c>
       <c r="D104">
-        <v>0.9695134349596128</v>
+        <v>-0.09570254723913575</v>
       </c>
       <c r="E104">
-        <v>0.07858506309246654</v>
+        <v>-0.1215201511269998</v>
+      </c>
+      <c r="F104">
+        <v>0.9246001367754686</v>
+      </c>
+      <c r="G104">
+        <v>-0.2704946928532936</v>
       </c>
     </row>
   </sheetData>
